--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/Personnel_1.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/Personnel_1.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario1-AllMembersLowExpertiseInAllSkills\LearningBased\WithFigures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>sprint</t>
   </si>
@@ -47,6 +52,12 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>idle hours</t>
+  </si>
+  <si>
+    <t>sprint time</t>
   </si>
 </sst>
 </file>
@@ -190,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +381,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -531,8 +548,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -584,6 +603,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -591,7 +613,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -653,7 +675,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_1!$C$2:$C$153</c:f>
+              <c:f>Personnel_1!$D$2:$D$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
@@ -1118,7 +1140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_1!$G$2:$G$153</c:f>
+              <c:f>Personnel_1!$H$2:$H$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
@@ -1594,7 +1616,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_1!$C$2:$C$153</c:f>
+              <c:f>Personnel_1!$D$2:$D$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
@@ -2059,7 +2081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_1!$H$2:$H$153</c:f>
+              <c:f>Personnel_1!$I$2:$I$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
@@ -2535,7 +2557,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_1!$C$2:$C$153</c:f>
+              <c:f>Personnel_1!$D$2:$D$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
@@ -3000,7 +3022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_1!$I$2:$I$153</c:f>
+              <c:f>Personnel_1!$J$2:$J$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="152"/>
@@ -3473,13 +3495,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37504896"/>
-        <c:axId val="37519360"/>
+        <c:axId val="-1578986368"/>
+        <c:axId val="-1578986912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37504896"/>
+        <c:axId val="-1578986368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,7 +3529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37519360"/>
+        <c:crossAx val="-1578986912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3516,7 +3537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37519360"/>
+        <c:axId val="-1578986912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3559,7 +3580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37504896"/>
+        <c:crossAx val="-1578986368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,16 +3615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3670,7 +3691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3705,7 +3726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3914,4211 +3935,4921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>B2/375</f>
+        <v>2.9333333333333333E-2</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
         <v>2.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>6053</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">B3/375</f>
+        <v>16.141333333333332</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>2.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>M2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>6070</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>16.186666666666667</v>
+      </c>
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
         <v>2.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M19" si="1">M3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>24073</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>64.194666666666663</v>
+      </c>
+      <c r="D5">
         <v>64</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>2.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.1999999999999904</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>52</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D6">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
         <v>2.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.1999999999999904</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>3008</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0213333333333328</v>
+      </c>
+      <c r="D7">
         <v>88</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>2.65</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.44999999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.1999999999999904</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
         <v>3010</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0266666666666673</v>
+      </c>
+      <c r="D8">
         <v>88</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
         <v>2.65</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.44999999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.1999999999999904</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>21011</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>56.029333333333334</v>
+      </c>
+      <c r="D9">
         <v>136</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
         <v>2.65</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.44999999999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>21290</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>56.773333333333333</v>
+      </c>
+      <c r="D10">
         <v>136</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <v>2.65</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.44999999999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>30293</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>80.781333333333336</v>
+      </c>
+      <c r="D11">
         <v>160</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.44999999999999</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9333333333333333E-2</v>
+      </c>
+      <c r="D12">
         <v>160</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>17</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.44999999999999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
         <v>15013</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>40.034666666666666</v>
+      </c>
+      <c r="D13">
         <v>200</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>17</v>
       </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.94999999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>240</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.94999999999999</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
         <v>753</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.008</v>
+      </c>
+      <c r="D15">
         <v>242</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>24</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3.94999999999999</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
         <v>759</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.024</v>
+      </c>
+      <c r="D16">
         <v>242</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3.94999999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17">
         <v>10513</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>28.034666666666666</v>
+      </c>
+      <c r="D17">
         <v>268</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3.94999999999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D18">
         <v>320</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>34</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
         <v>3.0999999999999899</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.94999999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <f>M17+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
         <v>14265</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>38.04</v>
+      </c>
+      <c r="D19">
         <v>358</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>34</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
         <v>4.3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.1499999999999897</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9.4499999999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>56</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D20">
         <v>400</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>48</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
         <v>4.3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.1499999999999897</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
         <v>771</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.056</v>
+      </c>
+      <c r="D21">
         <v>402</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>48</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>4.3</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22">
         <v>773</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0613333333333332</v>
+      </c>
+      <c r="D22">
         <v>402</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>41</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
         <v>4.3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>9.6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23">
         <v>6774</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18.064</v>
+      </c>
+      <c r="D23">
         <v>418</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>41</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
         <v>4.3</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>6.1999999999999904</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>9.6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24">
         <v>6776</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>18.069333333333333</v>
+      </c>
+      <c r="D24">
         <v>418</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>37</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
         <v>4.3</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6.1999999999999904</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9.6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25">
         <v>24777</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>66.072000000000003</v>
+      </c>
+      <c r="D25">
         <v>466</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
         <v>5.1999999999999904</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6.1999999999999904</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>9.6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D26">
         <v>480</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>58</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26">
         <v>5.1999999999999904</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6.1999999999999904</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>9.6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27">
         <v>757</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0186666666666668</v>
+      </c>
+      <c r="D27">
         <v>482</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>58</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
         <v>5.35</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6.35</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>9.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28">
         <v>759</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>2.024</v>
+      </c>
+      <c r="D28">
         <v>482</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>56</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28">
         <v>5.35</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>6.35</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>9.75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
       <c r="B29">
         <v>6760</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>18.026666666666667</v>
+      </c>
+      <c r="D29">
         <v>498</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>56</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
         <v>5.35</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7.25</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>10.65</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30">
         <v>6762</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>18.032</v>
+      </c>
+      <c r="D30">
         <v>498</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>54</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30">
         <v>5.35</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>7.25</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>10.65</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
       <c r="B31">
         <v>7512</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>20.032</v>
+      </c>
+      <c r="D31">
         <v>500</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>54</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
         <v>5.35</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7.4</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>10.65</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
       <c r="B32">
         <v>7514</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>20.037333333333333</v>
+      </c>
+      <c r="D32">
         <v>500</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>55</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7</v>
       </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32">
         <v>5.35</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7.4</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>10.65</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
       <c r="B33">
         <v>14265</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>38.04</v>
+      </c>
+      <c r="D33">
         <v>518</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>55</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>7</v>
       </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
         <v>6.3999999999999897</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.4</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>10.65</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
       <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9333333333333333E-2</v>
+      </c>
+      <c r="D34">
         <v>560</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>79</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
         <v>6.3999999999999897</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>7.4</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>10.65</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
       <c r="B35">
         <v>1887</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>5.032</v>
+      </c>
+      <c r="D35">
         <v>565</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>79</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
         <v>6.3999999999999897</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>7.7</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>10.95</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36">
         <v>1889</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0373333333333337</v>
+      </c>
+      <c r="D36">
         <v>565</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>80</v>
       </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36">
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36">
         <v>6.3999999999999897</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7.7</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>10.95</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
       <c r="B37">
         <v>11640</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>31.04</v>
+      </c>
+      <c r="D37">
         <v>591</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>80</v>
       </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37">
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
         <v>7.8999999999999897</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>10.95</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38">
         <v>11641</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>31.042666666666666</v>
+      </c>
+      <c r="D38">
         <v>591</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>75</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>5</v>
       </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38">
         <v>7.8999999999999897</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>10.95</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
       <c r="B39">
         <v>16517</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>44.045333333333332</v>
+      </c>
+      <c r="D39">
         <v>604</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>75</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>5</v>
       </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
         <v>8.6499999999999897</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>10.95</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
       <c r="B40">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4666666666666665E-2</v>
+      </c>
+      <c r="D40">
         <v>640</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>83</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
         <v>8.6499999999999897</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>10.95</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
       <c r="B41">
         <v>3014</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0373333333333328</v>
+      </c>
+      <c r="D41">
         <v>648</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>83</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
         <v>9.0999999999999908</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>11.4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42">
         <v>3015</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D42">
         <v>648</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>85</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
         <v>9.0999999999999908</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>11.4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
       <c r="B43">
         <v>4893</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>13.048</v>
+      </c>
+      <c r="D43">
         <v>653</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>85</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>11.4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
       <c r="B44">
         <v>4894</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>13.050666666666666</v>
+      </c>
+      <c r="D44">
         <v>653</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>92</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>8</v>
       </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44">
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>11.4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45">
         <v>12770</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>34.053333333333335</v>
+      </c>
+      <c r="D45">
         <v>674</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>92</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>12.6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
       <c r="B46">
         <v>12772</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>34.058666666666667</v>
+      </c>
+      <c r="D46">
         <v>674</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>97</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>12.6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
       <c r="B47">
         <v>15773</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42.06133333333333</v>
+      </c>
+      <c r="D47">
         <v>682</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>97</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>3</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>13.049999999999899</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
       <c r="B48">
         <v>15774</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>42.064</v>
+      </c>
+      <c r="D48">
         <v>682</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>102</v>
       </c>
-      <c r="E48">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48">
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>13.049999999999899</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
       <c r="B49">
         <v>24775</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>66.066666666666663</v>
+      </c>
+      <c r="D49">
         <v>706</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>102</v>
       </c>
-      <c r="E49">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49">
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>14.399999999999901</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D50">
         <v>720</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>112</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>6</v>
       </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50">
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>14.399999999999901</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
       <c r="B51">
         <v>6009</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>16.024000000000001</v>
+      </c>
+      <c r="D51">
         <v>736</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>112</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>6</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
         <v>10.299999999999899</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>10.1</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>15.299999999999899</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
       <c r="B52">
         <v>6011</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>16.029333333333334</v>
+      </c>
+      <c r="D52">
         <v>736</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>126</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52">
         <v>10.299999999999899</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>10.1</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>15.299999999999899</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
       <c r="B53">
         <v>7887</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>21.032</v>
+      </c>
+      <c r="D53">
         <v>741</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>126</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
         <v>10.6</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>10.4</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>15.6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
       <c r="B54">
         <v>7887</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>21.032</v>
+      </c>
+      <c r="D54">
         <v>741</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>105</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>8</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54">
         <v>10.6</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>10.4</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>15.6</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
       <c r="B55">
         <v>15764</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>42.037333333333336</v>
+      </c>
+      <c r="D55">
         <v>762</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>105</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>8</v>
       </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
         <v>11.799999999999899</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>11.6</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>16.8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
       <c r="B56">
         <v>15766</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>42.042666666666669</v>
+      </c>
+      <c r="D56">
         <v>762</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>116</v>
       </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56">
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
         <v>11.799999999999899</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>11.6</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>16.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
       <c r="B57">
         <v>25517</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>68.045333333333332</v>
+      </c>
+      <c r="D57">
         <v>788</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>116</v>
       </c>
-      <c r="E57">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57">
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
         <v>11.799999999999899</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>13.1</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>16.8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D58">
         <v>800</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>132</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>7</v>
       </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
         <v>11.799999999999899</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>13.1</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>16.8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
       <c r="B59">
         <v>6756</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>18.015999999999998</v>
+      </c>
+      <c r="D59">
         <v>818</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>132</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>7</v>
       </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
         <v>12.85</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>14.15</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>16.8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
       <c r="B60">
         <v>6757</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>18.018666666666668</v>
+      </c>
+      <c r="D60">
         <v>818</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>142</v>
       </c>
-      <c r="E60">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60">
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60">
         <v>12.85</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>14.15</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>16.8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
       <c r="B61">
         <v>15759</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>42.024000000000001</v>
+      </c>
+      <c r="D61">
         <v>842</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>142</v>
       </c>
-      <c r="E61">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61">
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
         <v>14.2</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>14.15</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
       <c r="B62">
         <v>15760</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>42.026666666666664</v>
+      </c>
+      <c r="D62">
         <v>842</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>131</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>3</v>
       </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
         <v>14.2</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>14.15</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
       <c r="B63">
         <v>18761</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>50.029333333333334</v>
+      </c>
+      <c r="D63">
         <v>850</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>131</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
         <v>14.2</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>14.6</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
       <c r="B64">
         <v>18763</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>50.034666666666666</v>
+      </c>
+      <c r="D64">
         <v>850</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>145</v>
       </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64">
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64">
         <v>14.2</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>14.6</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
       <c r="B65">
         <v>27764</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>74.037333333333336</v>
+      </c>
+      <c r="D65">
         <v>874</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>145</v>
       </c>
-      <c r="E65">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65">
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
         <v>14.2</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>15.95</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
       <c r="B66">
         <v>33</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D66">
         <v>880</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>167</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66">
         <v>14.2</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>15.95</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
       <c r="B67">
         <v>3786</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C130" si="2">B67/375</f>
+        <v>10.096</v>
+      </c>
+      <c r="D67">
         <v>890</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>167</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>4</v>
       </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67">
         <v>14.2</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>16.55</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>18.75</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
       <c r="B68">
         <v>3791</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
+        <f t="shared" si="2"/>
+        <v>10.109333333333334</v>
+      </c>
+      <c r="D68">
         <v>890</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>168</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>6</v>
       </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68">
         <v>14.2</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>16.55</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>18.75</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
       <c r="B69">
         <v>9793</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
+        <f t="shared" si="2"/>
+        <v>26.114666666666668</v>
+      </c>
+      <c r="D69">
         <v>906</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>168</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>6</v>
       </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
         <v>14.2</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>17.45</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
       <c r="B70">
         <v>9799</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
+        <f t="shared" si="2"/>
+        <v>26.130666666666666</v>
+      </c>
+      <c r="D70">
         <v>906</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>165</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>7</v>
       </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70">
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70">
         <v>14.2</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>17.45</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="B71">
         <v>16552</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
+        <f t="shared" si="2"/>
+        <v>44.138666666666666</v>
+      </c>
+      <c r="D71">
         <v>924</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>165</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>7</v>
       </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71">
         <v>14.2</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>17.45</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>20.7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12</v>
       </c>
       <c r="B72">
         <v>16557</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
+        <f t="shared" si="2"/>
+        <v>44.152000000000001</v>
+      </c>
+      <c r="D72">
         <v>924</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>173</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>3</v>
       </c>
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72">
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72">
         <v>14.2</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>17.45</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>20.7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
       <c r="B73">
         <v>18059</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
+        <f t="shared" si="2"/>
+        <v>48.157333333333334</v>
+      </c>
+      <c r="D73">
         <v>928</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>173</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73">
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73">
         <v>14.2</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>17.45</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>21.15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
       <c r="B74">
         <v>18065</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
+        <f t="shared" si="2"/>
+        <v>48.173333333333332</v>
+      </c>
+      <c r="D74">
         <v>928</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>171</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>6</v>
       </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74">
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74">
         <v>14.2</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>17.45</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>21.15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
       <c r="B75">
         <v>24068</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
+        <f t="shared" si="2"/>
+        <v>64.181333333333328</v>
+      </c>
+      <c r="D75">
         <v>944</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>171</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75">
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75">
         <v>14.2</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>18.349999999999898</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>21.15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D76">
         <v>960</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>192</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>6</v>
       </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76">
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76">
         <v>14.2</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>18.349999999999898</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>21.15</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
       <c r="B77">
         <v>4519</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
+        <f t="shared" si="2"/>
+        <v>12.050666666666666</v>
+      </c>
+      <c r="D77">
         <v>972</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>192</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>6</v>
       </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77">
         <v>15.1</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>18.349999999999898</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>22.05</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13</v>
       </c>
       <c r="B78">
         <v>4520</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
+        <f t="shared" si="2"/>
+        <v>12.053333333333333</v>
+      </c>
+      <c r="D78">
         <v>972</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>194</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>5</v>
       </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78">
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78">
         <v>15.1</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>18.349999999999898</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>22.05</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13</v>
       </c>
       <c r="B79">
         <v>8272</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
+        <f t="shared" si="2"/>
+        <v>22.058666666666667</v>
+      </c>
+      <c r="D79">
         <v>982</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>194</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>5</v>
       </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79">
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
         <v>15.1</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>19.099999999999898</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>22.8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13</v>
       </c>
       <c r="B80">
         <v>8273</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
+        <f t="shared" si="2"/>
+        <v>22.061333333333334</v>
+      </c>
+      <c r="D80">
         <v>982</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>210</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>3</v>
       </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80">
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80">
         <v>15.1</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>19.099999999999898</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>22.8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>13</v>
       </c>
       <c r="B81">
         <v>10524</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
+        <f t="shared" si="2"/>
+        <v>28.064</v>
+      </c>
+      <c r="D81">
         <v>988</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>210</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>3</v>
       </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81">
         <v>15.549999999999899</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>19.099999999999898</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>23.25</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
       <c r="B82">
         <v>10525</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
+        <f t="shared" si="2"/>
+        <v>28.066666666666666</v>
+      </c>
+      <c r="D82">
         <v>988</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>191</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>8</v>
       </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82">
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82">
         <v>15.549999999999899</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>19.099999999999898</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>23.25</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13</v>
       </c>
       <c r="B83">
         <v>15025</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
+        <f t="shared" si="2"/>
+        <v>40.06666666666667</v>
+      </c>
+      <c r="D83">
         <v>1000</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>191</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>8</v>
       </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83">
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83">
         <v>15.549999999999899</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>19.099999999999898</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>24.45</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13</v>
       </c>
       <c r="B84">
         <v>15031</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
+        <f t="shared" si="2"/>
+        <v>40.082666666666668</v>
+      </c>
+      <c r="D84">
         <v>1000</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>195</v>
       </c>
-      <c r="E84">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84">
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84">
         <v>15.549999999999899</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>19.099999999999898</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>24.45</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
       <c r="B85">
         <v>24034</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
+        <f t="shared" si="2"/>
+        <v>64.090666666666664</v>
+      </c>
+      <c r="D85">
         <v>1024</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>195</v>
       </c>
-      <c r="E85">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85">
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85">
         <v>15.549999999999899</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>20.45</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>24.45</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D86">
         <v>1040</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>218</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86">
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86">
         <v>15.549999999999899</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>20.45</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>24.45</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
       <c r="B87">
         <v>757</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0186666666666668</v>
+      </c>
+      <c r="D87">
         <v>1042</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>218</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87">
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87">
         <v>15.7</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>20.599999999999898</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>24.45</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
       <c r="B88">
         <v>762</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
+        <f t="shared" si="2"/>
+        <v>2.032</v>
+      </c>
+      <c r="D88">
         <v>1042</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>242</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>7</v>
       </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88">
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88">
         <v>15.7</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>20.599999999999898</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>24.45</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
       <c r="B89">
         <v>4890</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
+        <f t="shared" si="2"/>
+        <v>13.04</v>
+      </c>
+      <c r="D89">
         <v>1053</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>242</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>7</v>
       </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89">
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89">
         <v>15.7</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>21.65</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>25.5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
       <c r="B90">
         <v>4893</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
+        <f t="shared" si="2"/>
+        <v>13.048</v>
+      </c>
+      <c r="D90">
         <v>1053</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>236</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>5</v>
       </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90">
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90">
         <v>15.7</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>21.65</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>25.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
       <c r="B91">
         <v>7896</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
+        <f t="shared" si="2"/>
+        <v>21.056000000000001</v>
+      </c>
+      <c r="D91">
         <v>1061</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>236</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91">
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91">
         <v>15.7</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>22.4</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>26.25</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
       <c r="B92">
         <v>7899</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
+        <f t="shared" si="2"/>
+        <v>21.064</v>
+      </c>
+      <c r="D92">
         <v>1061</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>228</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>2</v>
       </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92">
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92">
         <v>15.7</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>22.4</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>26.25</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
       <c r="B93">
         <v>9026</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
+        <f t="shared" si="2"/>
+        <v>24.069333333333333</v>
+      </c>
+      <c r="D93">
         <v>1064</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>228</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>2</v>
       </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93">
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93">
         <v>15.7</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>22.7</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>26.55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
       <c r="B94">
         <v>9032</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
+        <f t="shared" si="2"/>
+        <v>24.085333333333335</v>
+      </c>
+      <c r="D94">
         <v>1064</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>216</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>6</v>
       </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94">
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94">
         <v>15.7</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>22.7</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>26.55</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
       <c r="B95">
         <v>13533</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
+        <f t="shared" si="2"/>
+        <v>36.088000000000001</v>
+      </c>
+      <c r="D95">
         <v>1076</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>216</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>6</v>
       </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95">
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95">
         <v>16.599999999999898</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>23.599999999999898</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>26.55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
       <c r="B96">
         <v>13534</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
+        <f t="shared" si="2"/>
+        <v>36.090666666666664</v>
+      </c>
+      <c r="D96">
         <v>1076</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>234</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>3</v>
       </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96">
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96">
         <v>16.599999999999898</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>23.599999999999898</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>26.55</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
       <c r="B97">
         <v>15035</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
+        <f t="shared" si="2"/>
+        <v>40.093333333333334</v>
+      </c>
+      <c r="D97">
         <v>1080</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>234</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>3</v>
       </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97">
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97">
         <v>16.599999999999898</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>24.049999999999901</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>26.55</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
       <c r="B98">
         <v>15041</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
+        <f t="shared" si="2"/>
+        <v>40.109333333333332</v>
+      </c>
+      <c r="D98">
         <v>1080</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>243</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>3</v>
       </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98">
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98">
         <v>16.599999999999898</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>24.049999999999901</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>26.55</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14</v>
       </c>
       <c r="B99">
         <v>16544</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
+        <f t="shared" si="2"/>
+        <v>44.117333333333335</v>
+      </c>
+      <c r="D99">
         <v>1084</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>243</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>3</v>
       </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99">
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99">
         <v>16.599999999999898</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>24.499999999999901</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>26.55</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
       <c r="B100">
         <v>16550</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
+        <f t="shared" si="2"/>
+        <v>44.133333333333333</v>
+      </c>
+      <c r="D100">
         <v>1084</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>244</v>
       </c>
-      <c r="E100">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100">
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100">
         <v>16.599999999999898</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>24.499999999999901</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>26.55</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14</v>
       </c>
       <c r="B101">
         <v>22552</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
+        <f t="shared" si="2"/>
+        <v>60.138666666666666</v>
+      </c>
+      <c r="D101">
         <v>1100</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>244</v>
       </c>
-      <c r="E101">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101">
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101">
         <v>16.599999999999898</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>25.999999999999901</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>26.55</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15</v>
       </c>
       <c r="B102">
         <v>16</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2666666666666665E-2</v>
+      </c>
+      <c r="D102">
         <v>1120</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>268</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>7</v>
       </c>
-      <c r="F102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102">
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102">
         <v>16.599999999999898</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>25.999999999999901</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>26.55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>15</v>
       </c>
       <c r="B103">
         <v>4519</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
+        <f t="shared" si="2"/>
+        <v>12.050666666666666</v>
+      </c>
+      <c r="D103">
         <v>1132</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>268</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>7</v>
       </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103">
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103">
         <v>17.649999999999999</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>27.049999999999901</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>27.6</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>15</v>
       </c>
       <c r="B104">
         <v>4524</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
+        <f t="shared" si="2"/>
+        <v>12.064</v>
+      </c>
+      <c r="D104">
         <v>1132</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>262</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>7</v>
       </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104">
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104">
         <v>17.649999999999999</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>27.049999999999901</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>27.6</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15</v>
       </c>
       <c r="B105">
         <v>8651</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
+        <f t="shared" si="2"/>
+        <v>23.069333333333333</v>
+      </c>
+      <c r="D105">
         <v>1143</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>262</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>7</v>
       </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105">
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105">
         <v>17.649999999999999</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>28.099999999999898</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>28.65</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15</v>
       </c>
       <c r="B106">
         <v>8657</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
+        <f t="shared" si="2"/>
+        <v>23.085333333333335</v>
+      </c>
+      <c r="D106">
         <v>1143</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>283</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>2</v>
       </c>
-      <c r="F106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106">
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106">
         <v>17.649999999999999</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>28.099999999999898</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>28.65</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>15</v>
       </c>
       <c r="B107">
         <v>9784</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
+        <f t="shared" si="2"/>
+        <v>26.090666666666667</v>
+      </c>
+      <c r="D107">
         <v>1146</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>283</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>2</v>
       </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107">
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107">
         <v>17.649999999999999</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>28.4</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>28.95</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15</v>
       </c>
       <c r="B108">
         <v>9790</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
+        <f t="shared" si="2"/>
+        <v>26.106666666666666</v>
+      </c>
+      <c r="D108">
         <v>1146</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>271</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>5</v>
       </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108">
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108">
         <v>17.649999999999999</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>28.4</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>28.95</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>15</v>
       </c>
       <c r="B109">
         <v>13543</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
+        <f t="shared" si="2"/>
+        <v>36.114666666666665</v>
+      </c>
+      <c r="D109">
         <v>1156</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>271</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>5</v>
       </c>
-      <c r="F109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109">
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109">
         <v>18.399999999999999</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>28.4</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>29.7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15</v>
       </c>
       <c r="B110">
         <v>13549</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
+        <f t="shared" si="2"/>
+        <v>36.13066666666667</v>
+      </c>
+      <c r="D110">
         <v>1156</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>255</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>7</v>
       </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110">
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110">
         <v>18.399999999999999</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>28.4</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>29.7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>15</v>
       </c>
       <c r="B111">
         <v>17676</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
+        <f t="shared" si="2"/>
+        <v>47.136000000000003</v>
+      </c>
+      <c r="D111">
         <v>1167</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>255</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>7</v>
       </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111">
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111">
         <v>18.399999999999999</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>29.45</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>29.7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>15</v>
       </c>
       <c r="B112">
         <v>17680</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
+        <f t="shared" si="2"/>
+        <v>47.146666666666668</v>
+      </c>
+      <c r="D112">
         <v>1167</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>258</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>1</v>
       </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112">
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112">
         <v>18.399999999999999</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>29.45</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>29.7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15</v>
       </c>
       <c r="B113">
         <v>18056</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
+        <f t="shared" si="2"/>
+        <v>48.149333333333331</v>
+      </c>
+      <c r="D113">
         <v>1168</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>258</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>1</v>
       </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113">
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113">
         <v>18.399999999999999</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>29.45</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>29.85</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>15</v>
       </c>
       <c r="B114">
         <v>18061</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
+        <f t="shared" si="2"/>
+        <v>48.162666666666667</v>
+      </c>
+      <c r="D114">
         <v>1168</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>267</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>1</v>
       </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114">
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114">
         <v>18.399999999999999</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>29.45</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>29.85</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>15</v>
       </c>
       <c r="B115">
         <v>18813</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
+        <f t="shared" si="2"/>
+        <v>50.167999999999999</v>
+      </c>
+      <c r="D115">
         <v>1170</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>267</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>1</v>
       </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115">
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115">
         <v>18.549999999999901</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>29.45</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>29.85</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15</v>
       </c>
       <c r="B116">
         <v>18820</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
+        <f t="shared" si="2"/>
+        <v>50.186666666666667</v>
+      </c>
+      <c r="D116">
         <v>1170</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>266</v>
       </c>
-      <c r="E116">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116">
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116">
         <v>18.549999999999901</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>29.45</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>29.85</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>15</v>
       </c>
       <c r="B117">
         <v>24074</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
+        <f t="shared" si="2"/>
+        <v>64.197333333333333</v>
+      </c>
+      <c r="D117">
         <v>1184</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>266</v>
       </c>
-      <c r="E117">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117">
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117">
         <v>18.549999999999901</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>30</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>29.85</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
       <c r="B118">
         <v>14</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="D118">
         <v>1200</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>287</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118">
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118">
         <v>18.549999999999901</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>30</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>29.85</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16</v>
       </c>
       <c r="B119">
         <v>390</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
+      <c r="D119">
         <v>1201</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>287</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>1</v>
       </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119">
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119">
         <v>18.6999999999999</v>
-      </c>
-      <c r="H119">
-        <v>30</v>
       </c>
       <c r="I119">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>16</v>
       </c>
       <c r="B120">
         <v>395</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0533333333333332</v>
+      </c>
+      <c r="D120">
         <v>1201</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>312</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>4</v>
       </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120">
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120">
         <v>18.6999999999999</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
       </c>
       <c r="I120">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>16</v>
       </c>
       <c r="B121">
         <v>3023</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0613333333333337</v>
+      </c>
+      <c r="D121">
         <v>1208</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>312</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>4</v>
       </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121">
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121">
         <v>19.299999999999901</v>
-      </c>
-      <c r="H121">
-        <v>30</v>
       </c>
       <c r="I121">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>16</v>
       </c>
       <c r="B122">
         <v>3027</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0719999999999992</v>
+      </c>
+      <c r="D122">
         <v>1208</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>330</v>
       </c>
-      <c r="E122">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122">
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122">
         <v>19.299999999999901</v>
-      </c>
-      <c r="H122">
-        <v>30</v>
       </c>
       <c r="I122">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>16</v>
       </c>
       <c r="B123">
         <v>9780</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
+        <f t="shared" si="2"/>
+        <v>26.08</v>
+      </c>
+      <c r="D123">
         <v>1226</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>330</v>
       </c>
-      <c r="E123">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123">
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123">
         <v>20.799999999999901</v>
-      </c>
-      <c r="H123">
-        <v>30</v>
       </c>
       <c r="I123">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>16</v>
       </c>
       <c r="B124">
         <v>9796</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
+        <f t="shared" si="2"/>
+        <v>26.122666666666667</v>
+      </c>
+      <c r="D124">
         <v>1226</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>295</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>7</v>
       </c>
-      <c r="F124" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124">
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124">
         <v>20.799999999999901</v>
-      </c>
-      <c r="H124">
-        <v>30</v>
       </c>
       <c r="I124">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>16</v>
       </c>
       <c r="B125">
         <v>13923</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
+        <f t="shared" si="2"/>
+        <v>37.128</v>
+      </c>
+      <c r="D125">
         <v>1237</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>295</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>7</v>
       </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125">
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125">
         <v>21.849999999999898</v>
-      </c>
-      <c r="H125">
-        <v>30</v>
       </c>
       <c r="I125">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>16</v>
       </c>
       <c r="B126">
         <v>13926</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
+        <f t="shared" si="2"/>
+        <v>37.136000000000003</v>
+      </c>
+      <c r="D126">
         <v>1237</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>288</v>
       </c>
-      <c r="E126">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126">
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126">
         <v>21.849999999999898</v>
-      </c>
-      <c r="H126">
-        <v>30</v>
       </c>
       <c r="I126">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16</v>
       </c>
       <c r="B127">
         <v>19928</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
+        <f t="shared" si="2"/>
+        <v>53.141333333333336</v>
+      </c>
+      <c r="D127">
         <v>1253</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>288</v>
       </c>
-      <c r="E127">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127">
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127">
         <v>23.349999999999898</v>
-      </c>
-      <c r="H127">
-        <v>30</v>
       </c>
       <c r="I127">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>16</v>
       </c>
       <c r="B128">
         <v>19930</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
+        <f t="shared" si="2"/>
+        <v>53.146666666666668</v>
+      </c>
+      <c r="D128">
         <v>1253</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>332</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>5</v>
       </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128">
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128">
         <v>23.349999999999898</v>
-      </c>
-      <c r="H128">
-        <v>30</v>
       </c>
       <c r="I128">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>16</v>
       </c>
       <c r="B129">
         <v>22931</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
+        <f t="shared" si="2"/>
+        <v>61.149333333333331</v>
+      </c>
+      <c r="D129">
         <v>1261</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>332</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>5</v>
       </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129">
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129">
         <v>24.099999999999898</v>
-      </c>
-      <c r="H129">
-        <v>30</v>
       </c>
       <c r="I129">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>16</v>
       </c>
       <c r="B130">
         <v>22933</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
+        <f t="shared" si="2"/>
+        <v>61.154666666666664</v>
+      </c>
+      <c r="D130">
         <v>1261</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>296</v>
       </c>
-      <c r="E130">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130">
+      <c r="F130">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130">
         <v>24.099999999999898</v>
-      </c>
-      <c r="H130">
-        <v>30</v>
       </c>
       <c r="I130">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>16</v>
       </c>
       <c r="B131">
         <v>28185</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
+        <f t="shared" ref="C131:C153" si="3">B131/375</f>
+        <v>75.16</v>
+      </c>
+      <c r="D131">
         <v>1275</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>296</v>
       </c>
-      <c r="E131">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131">
+      <c r="F131">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131">
         <v>25.45</v>
-      </c>
-      <c r="H131">
-        <v>30</v>
       </c>
       <c r="I131">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>17</v>
       </c>
       <c r="B132">
         <v>27</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D132">
         <v>1280</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>382</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>7</v>
       </c>
-      <c r="F132" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132">
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132">
         <v>25.45</v>
-      </c>
-      <c r="H132">
-        <v>30</v>
       </c>
       <c r="I132">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>17</v>
       </c>
       <c r="B133">
         <v>4156</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
+        <f t="shared" si="3"/>
+        <v>11.082666666666666</v>
+      </c>
+      <c r="D133">
         <v>1291</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>382</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>7</v>
       </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133">
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133">
         <v>26.5</v>
-      </c>
-      <c r="H133">
-        <v>30</v>
       </c>
       <c r="I133">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>17</v>
       </c>
       <c r="B134">
         <v>4157</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
+        <f t="shared" si="3"/>
+        <v>11.085333333333333</v>
+      </c>
+      <c r="D134">
         <v>1291</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>353</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>3</v>
       </c>
-      <c r="F134" t="s">
-        <v>9</v>
-      </c>
-      <c r="G134">
+      <c r="G134" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134">
         <v>26.5</v>
-      </c>
-      <c r="H134">
-        <v>30</v>
       </c>
       <c r="I134">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>17</v>
       </c>
       <c r="B135">
         <v>5658</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
+        <f t="shared" si="3"/>
+        <v>15.087999999999999</v>
+      </c>
+      <c r="D135">
         <v>1295</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>353</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>3</v>
       </c>
-      <c r="F135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135">
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135">
         <v>26.95</v>
-      </c>
-      <c r="H135">
-        <v>30</v>
       </c>
       <c r="I135">
         <v>30</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>17</v>
       </c>
       <c r="B136">
         <v>5660</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
+        <f t="shared" si="3"/>
+        <v>15.093333333333334</v>
+      </c>
+      <c r="D136">
         <v>1295</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>349</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>6</v>
       </c>
-      <c r="F136" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136">
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136">
         <v>26.95</v>
-      </c>
-      <c r="H136">
-        <v>30</v>
       </c>
       <c r="I136">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>17</v>
       </c>
       <c r="B137">
         <v>9037</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
+        <f t="shared" si="3"/>
+        <v>24.098666666666666</v>
+      </c>
+      <c r="D137">
         <v>1304</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>349</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>6</v>
       </c>
-      <c r="F137" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137">
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137">
         <v>27.849999999999898</v>
-      </c>
-      <c r="H137">
-        <v>30</v>
       </c>
       <c r="I137">
         <v>30</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>17</v>
       </c>
       <c r="B138">
         <v>9040</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
+        <f t="shared" si="3"/>
+        <v>24.106666666666666</v>
+      </c>
+      <c r="D138">
         <v>1304</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>356</v>
       </c>
-      <c r="E138">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138">
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138">
         <v>27.849999999999898</v>
-      </c>
-      <c r="H138">
-        <v>30</v>
       </c>
       <c r="I138">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>17</v>
       </c>
       <c r="B139">
         <v>15042</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
+        <f t="shared" si="3"/>
+        <v>40.112000000000002</v>
+      </c>
+      <c r="D139">
         <v>1320</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>356</v>
       </c>
-      <c r="E139">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139">
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139">
         <v>29.349999999999898</v>
-      </c>
-      <c r="H139">
-        <v>30</v>
       </c>
       <c r="I139">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17</v>
       </c>
       <c r="B140">
         <v>15044</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
+        <f t="shared" si="3"/>
+        <v>40.117333333333335</v>
+      </c>
+      <c r="D140">
         <v>1320</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>364</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>2</v>
       </c>
-      <c r="F140" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140">
+      <c r="G140" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140">
         <v>29.349999999999898</v>
-      </c>
-      <c r="H140">
-        <v>30</v>
       </c>
       <c r="I140">
         <v>30</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>17</v>
       </c>
       <c r="B141">
         <v>16169</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
+        <f t="shared" si="3"/>
+        <v>43.117333333333335</v>
+      </c>
+      <c r="D141">
         <v>1323</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>364</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>2</v>
       </c>
-      <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141">
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141">
         <v>29.65</v>
-      </c>
-      <c r="H141">
-        <v>30</v>
       </c>
       <c r="I141">
         <v>30</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>17</v>
       </c>
       <c r="B142">
         <v>16171</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
+        <f t="shared" si="3"/>
+        <v>43.122666666666667</v>
+      </c>
+      <c r="D142">
         <v>1323</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>384</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>1</v>
       </c>
-      <c r="F142" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142">
+      <c r="G142" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142">
         <v>29.65</v>
-      </c>
-      <c r="H142">
-        <v>30</v>
       </c>
       <c r="I142">
         <v>30</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>17</v>
       </c>
       <c r="B143">
         <v>16547</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
+        <f t="shared" si="3"/>
+        <v>44.12533333333333</v>
+      </c>
+      <c r="D143">
         <v>1324</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>384</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>1</v>
       </c>
-      <c r="F143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143">
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143">
         <v>29.799999999999901</v>
-      </c>
-      <c r="H143">
-        <v>30</v>
       </c>
       <c r="I143">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>17</v>
       </c>
       <c r="B144">
         <v>16549</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
+        <f t="shared" si="3"/>
+        <v>44.13066666666667</v>
+      </c>
+      <c r="D144">
         <v>1324</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>378</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>8</v>
       </c>
-      <c r="F144" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144">
+      <c r="G144" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144">
         <v>29.799999999999901</v>
-      </c>
-      <c r="H144">
-        <v>30</v>
       </c>
       <c r="I144">
         <v>30</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>17</v>
       </c>
       <c r="B145">
         <v>21054</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
+        <f t="shared" si="3"/>
+        <v>56.143999999999998</v>
+      </c>
+      <c r="D145">
         <v>1336</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>378</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>8</v>
       </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145">
-        <v>30</v>
+      <c r="G145" t="s">
+        <v>10</v>
       </c>
       <c r="H145">
         <v>30</v>
@@ -8126,28 +8857,32 @@
       <c r="I145">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>17</v>
       </c>
       <c r="B146">
         <v>21055</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
+        <f t="shared" si="3"/>
+        <v>56.146666666666668</v>
+      </c>
+      <c r="D146">
         <v>1336</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>362</v>
       </c>
-      <c r="E146">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146">
-        <v>30</v>
+      <c r="F146">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
       </c>
       <c r="H146">
         <v>30</v>
@@ -8155,28 +8890,32 @@
       <c r="I146">
         <v>30</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>17</v>
       </c>
       <c r="B147">
         <v>27056</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
+        <f t="shared" si="3"/>
+        <v>72.149333333333331</v>
+      </c>
+      <c r="D147">
         <v>1352</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>362</v>
       </c>
-      <c r="E147">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147">
-        <v>30</v>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
       </c>
       <c r="H147">
         <v>30</v>
@@ -8184,28 +8923,32 @@
       <c r="I147">
         <v>30</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3333333333333332E-3</v>
+      </c>
+      <c r="D148">
         <v>1360</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>386</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>5</v>
       </c>
-      <c r="F148" t="s">
-        <v>9</v>
-      </c>
-      <c r="G148">
-        <v>30</v>
+      <c r="G148" t="s">
+        <v>9</v>
       </c>
       <c r="H148">
         <v>30</v>
@@ -8213,28 +8956,32 @@
       <c r="I148">
         <v>30</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>18</v>
       </c>
       <c r="B149">
         <v>3004</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
+        <f t="shared" si="3"/>
+        <v>8.0106666666666673</v>
+      </c>
+      <c r="D149">
         <v>1368</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>386</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>5</v>
       </c>
-      <c r="F149" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149">
-        <v>30</v>
+      <c r="G149" t="s">
+        <v>10</v>
       </c>
       <c r="H149">
         <v>30</v>
@@ -8242,28 +8989,32 @@
       <c r="I149">
         <v>30</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>18</v>
       </c>
       <c r="B150">
         <v>3005</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
+        <f t="shared" si="3"/>
+        <v>8.0133333333333336</v>
+      </c>
+      <c r="D150">
         <v>1368</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>394</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>3</v>
       </c>
-      <c r="F150" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150">
-        <v>30</v>
+      <c r="G150" t="s">
+        <v>9</v>
       </c>
       <c r="H150">
         <v>30</v>
@@ -8271,28 +9022,32 @@
       <c r="I150">
         <v>30</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>18</v>
       </c>
       <c r="B151">
         <v>4506</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
+        <f t="shared" si="3"/>
+        <v>12.016</v>
+      </c>
+      <c r="D151">
         <v>1372</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>394</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>3</v>
       </c>
-      <c r="F151" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151">
-        <v>30</v>
+      <c r="G151" t="s">
+        <v>10</v>
       </c>
       <c r="H151">
         <v>30</v>
@@ -8300,28 +9055,32 @@
       <c r="I151">
         <v>30</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>18</v>
       </c>
       <c r="B152">
         <v>4507</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
+        <f t="shared" si="3"/>
+        <v>12.018666666666666</v>
+      </c>
+      <c r="D152">
         <v>1372</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>399</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>8</v>
       </c>
-      <c r="F152" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152">
-        <v>30</v>
+      <c r="G152" t="s">
+        <v>9</v>
       </c>
       <c r="H152">
         <v>30</v>
@@ -8329,28 +9088,32 @@
       <c r="I152">
         <v>30</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>18</v>
       </c>
       <c r="B153">
         <v>9008</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
+        <f t="shared" si="3"/>
+        <v>24.021333333333335</v>
+      </c>
+      <c r="D153">
         <v>1384</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>399</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>8</v>
       </c>
-      <c r="F153" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153">
-        <v>30</v>
+      <c r="G153" t="s">
+        <v>10</v>
       </c>
       <c r="H153">
         <v>30</v>
@@ -8358,9 +9121,13 @@
       <c r="I153">
         <v>30</v>
       </c>
+      <c r="J153">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>